--- a/analysis/Three Response.xlsx
+++ b/analysis/Three Response.xlsx
@@ -219,7 +219,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +230,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -704,148 +697,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1258,28 +1251,28 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1287,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1299,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1319,31 +1312,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1351,31 +1344,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1383,19 +1376,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1404,10 +1397,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1415,31 +1408,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1447,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1456,22 +1449,22 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1479,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1488,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1503,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1511,31 +1504,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1543,31 +1536,31 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1581,25 +1574,25 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1610,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1622,13 +1615,13 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1639,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1648,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1680,10 +1673,10 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1692,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1703,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1712,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1724,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1735,10 +1728,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1747,19 +1740,19 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1767,10 +1760,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1779,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1788,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1802,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1834,28 +1827,28 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1863,31 +1856,31 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1901,25 +1894,25 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1927,31 +1920,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1959,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1977,13 +1970,13 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1991,22 +1984,22 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2015,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2029,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2038,13 +2031,13 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2061,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2070,16 +2063,16 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2087,7 +2080,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2099,19 +2092,19 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2119,31 +2112,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2151,31 +2144,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2186,28 +2179,28 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2221,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -2236,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2247,31 +2240,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2279,7 +2272,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2288,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -2303,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2314,28 +2307,28 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2352,10 +2345,10 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2364,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2375,19 +2368,19 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2399,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2413,25 +2406,25 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2445,10 +2438,10 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -2457,13 +2450,13 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2474,16 +2467,16 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -2492,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -2509,13 +2502,13 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -2527,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2535,19 +2528,19 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -2559,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2567,28 +2560,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -2602,19 +2595,19 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -2631,13 +2624,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -2646,13 +2639,13 @@
         <v>4</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -2672,22 +2665,22 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2701,25 +2694,25 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2727,25 +2720,25 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -2759,7 +2752,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -2771,16 +2764,16 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -2791,28 +2784,28 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -2823,7 +2816,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2832,22 +2825,22 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
